--- a/01_HARDWARE（已完成）/02_PCB BOM清单/20250911-PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）.xlsx
+++ b/01_HARDWARE（已完成）/02_PCB BOM清单/20250911-PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\流浪地球 550W（MOSS）小智AI生态中枢\01_HARDWARE（已完成）\02_PCB BOM清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE9B46-9354-4249-9C95-2BB23A96A7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA71457B-535E-4C6E-9847-453F0C4899A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="279">
   <si>
     <t>PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）</t>
   </si>
@@ -132,6 +132,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -143,6 +144,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -170,6 +172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,6 +184,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -205,6 +209,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -216,6 +221,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,79 +331,54 @@
     <t>U1</t>
   </si>
   <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>DIP-40_L20.32-W51.66-P2.54-LS15.24</t>
+  </si>
+  <si>
+    <t>LCKFB-ESP32S3R8N8</t>
+  </si>
+  <si>
+    <t>立创开发板</t>
+  </si>
+  <si>
+    <t>C20626143</t>
+  </si>
+  <si>
+    <t>开发板/开发工具</t>
+  </si>
+  <si>
+    <t>开发板</t>
+  </si>
+  <si>
+    <t>改装16M FLASH</t>
+  </si>
+  <si>
+    <t>SOIC-8-208mil</t>
+  </si>
+  <si>
+    <t>Winbond(华邦)</t>
+  </si>
+  <si>
+    <t>C97521</t>
+  </si>
+  <si>
+    <t>128Mbit(16MBx8bit),高速版,133MHz(266/532MHz Dual/Quad-SPI,66MB/S),比W25Q128FVSIG,W25Q128FVFIG更高速</t>
+  </si>
+  <si>
+    <t>FH2.54-09-10PZS</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LCKFB-ESP32S3R8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N8-自己改N16</t>
-    </r>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>DIP-40_L20.32-W51.66-P2.54-LS15.24</t>
-  </si>
-  <si>
-    <t>LCKFB-ESP32S3R8N8</t>
-  </si>
-  <si>
-    <t>立创开发板</t>
-  </si>
-  <si>
-    <t>C20626143</t>
-  </si>
-  <si>
-    <t>开发板/开发工具</t>
-  </si>
-  <si>
-    <t>开发板</t>
-  </si>
-  <si>
-    <t>改装16M FLASH</t>
-  </si>
-  <si>
-    <t>SOIC-8-208mil</t>
-  </si>
-  <si>
-    <t>W25Q128JVSIQ</t>
-  </si>
-  <si>
-    <t>Winbond(华邦)</t>
-  </si>
-  <si>
-    <t>C97521</t>
-  </si>
-  <si>
-    <t>128Mbit(16MBx8bit),高速版,133MHz(266/532MHz Dual/Quad-SPI,66MB/S),比W25Q128FVSIG,W25Q128FVFIG更高速</t>
-  </si>
-  <si>
-    <t>FH2.54-09-10PZS</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -409,6 +390,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -542,12 +524,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>IND-SMD_L4.8-W4.5</t>
-  </si>
-  <si>
-    <t>SMMS0420-4R7M</t>
-  </si>
-  <si>
     <t>SXN(顺翔诺)</t>
   </si>
   <si>
@@ -726,9 +702,6 @@
   </si>
   <si>
     <t>DC-DC电源芯片</t>
-  </si>
-  <si>
-    <t>ZX-PH2.0-WT3P</t>
   </si>
   <si>
     <t>HM1160</t>
@@ -805,6 +778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -816,6 +790,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -887,12 +862,194 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>74HC595D</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新原装 74HC595D SN74HC595DR HC595 贴片SOP-16 寄存器芯片IC-淘宝网</t>
+  </si>
+  <si>
+    <t>ULN2003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新 ULN2003ADR ULN2003A 贴片 ULN2003APG ULN2003AN 直插16脚-淘宝网</t>
+  </si>
+  <si>
+    <t>PM254V-11-07-H85</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=975426443925&amp;mi_id=0000cYKClJC1Jc1AHinMRLru9VX8w5iMzr0JEnWuw0Izr7Q&amp;ns=1&amp;priceTId=214786f317580193008053657e0d96&amp;skuId=6096705467775&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2204aa309422c02b151b8ce9af25b9f7c1%22%7D&amp;xxc=taobaoSearch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX-XH2.54-3PWT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆星 ZX-XH2.54-2/3/4/5/6/7/8/9/10/11/12/13/14/15PWT 卧贴针座-淘宝网</t>
+  </si>
+  <si>
+    <t>WS2812B-4020</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=798847647792&amp;mi_id=0000I24UEf97F28fv6-CFBH3C9v0vgSvqxdUYYGPpj_OdDU&amp;skuId=5615413415980&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.6e512e8dhwjbil</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME6211C33M5G-N</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新原装 ME6211C33M5G ME6211-3.3V 低压差线性稳压器IC SOT23-5-淘宝网</t>
+  </si>
+  <si>
+    <t>FH2.54-09-03PZD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=966546224213&amp;mi_id=00008tQ3qudg7A4SdikW0DiIH-2KqzVABO9W0msOl96Dq8Q&amp;ns=1&amp;priceTId=214785ca17580199819828292e108f&amp;spm=a21n57.1.hoverItem.7&amp;utparam=%7B%22aplus_abtest%22%3A%223cc5fdfc7dea957e82148f799388cb66%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>PH2.54-01-03PZD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排针 PH2.54-01-03PZD 插件,P=2.54mm 1x3P 方针 电子元器件配单-淘宝网</t>
+  </si>
+  <si>
+    <t>WAFER-XH2.54-5PZZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH2.54-09-10PZS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排母 FH2.54-09-10PZS 插件,P=2.54mm 2x10P 方孔 电子元器件配单-淘宝网</t>
+  </si>
+  <si>
+    <t>WS2812E-1313</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=936093705618&amp;mi_id=0000Ml3oztywBRp42Oi5oYHKIxZX-478YXvDDy9W-v8C0q4&amp;ns=1&amp;priceTId=215042d717580206155867517e1c70&amp;skuId=5993423818572&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B"aplus_abtest"%3A"7a2ad72407976f833b20cb5a5154057e"%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>原装 WAFER-XH2.54-2P3P4P5P6P7P8P9P10P11P12P16PZZ 针座连接器-淘宝网</t>
+  </si>
+  <si>
+    <t>MY-18650-02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽扣与条形电池连接器 MY-18650-02 SMD 接触/弹性器件-淘宝网</t>
+  </si>
+  <si>
+    <t>IND-SMD_L4.8-W4.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMMS0420-4R7M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原装 SMMS0420-4R7M 贴片一体功率电感 4.7uH ±20% 2.5A 110mΩ-淘宝网</t>
+  </si>
+  <si>
+    <t>SZYY0603G</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA-3525-A2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高品质TA-3525-A2 3.5x9.1mm 滑动开关 侧拨 三脚二档 单排 贴片-淘宝网</t>
+  </si>
+  <si>
+    <t>TS24CA 250gf 013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT3608B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX-PH2.0-WT3P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关2*4*3.5mm 侧按微型手机按键卧贴 TS24CA 250gf 013 优质-淘宝网</t>
+  </si>
+  <si>
+    <t>HM1160</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原装全新 HM1160MR SOT23-6 印字60AA 单节锂电池电量指示芯片-淘宝网</t>
+  </si>
+  <si>
+    <t>SS34 SMAG 肖特基二极管 全新原装CJ 元器件配单可开票-淘宝网</t>
+  </si>
+  <si>
+    <t>PZ254V-12-20P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=861252926713&amp;mi_id=0000xpcupGA8K5zZx-DDbu-EEk9MpTO7KDmfW4kw5blnW60&amp;ns=1&amp;priceTId=213e091e17580218929985088e0fcb&amp;skuId=5678393928792&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22afae26962b6fc54fe015d6301bfd5168%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>FPC-05F-24PH20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME6211C28M5G-N</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME6211C15M5G-N</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>W25Q128JVSIQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LCKFB-ESP32S3R8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N8-自己改N16</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +1088,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -981,6 +1139,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1020,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1106,11 +1273,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,10 +1310,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,40 +1346,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,15 +1376,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1536,13 +1726,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -1558,41 +1748,41 @@
     <col min="12" max="12" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="48.95" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" ht="39" customHeight="1">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1668,7 +1858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1706,15 +1896,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
+      <c r="C6" s="30" t="s">
+        <v>241</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
@@ -1743,16 +1933,19 @@
       <c r="L6" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
+      <c r="C7" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
@@ -1781,16 +1974,19 @@
       <c r="L7" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
+      <c r="C8" s="30" t="s">
+        <v>247</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>40</v>
@@ -1819,16 +2015,19 @@
       <c r="L8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
+      <c r="C9" s="30" t="s">
+        <v>249</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1857,16 +2056,19 @@
       <c r="L9" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M9" s="31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
+      <c r="C10" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
@@ -1895,16 +2097,19 @@
       <c r="L10" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
+      <c r="C11" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>56</v>
@@ -1933,8 +2138,11 @@
       <c r="L11" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M11" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1972,7 +2180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2010,7 +2218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2048,7 +2256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2086,11 +2294,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="9">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2099,112 +2307,112 @@
       <c r="D16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18">
+      <c r="E16" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="20">
         <v>14</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="F19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>20</v>
@@ -2215,34 +2423,37 @@
       <c r="L19" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M19" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>20</v>
@@ -2253,34 +2464,37 @@
       <c r="L20" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M20" s="31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="F21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>20</v>
@@ -2291,126 +2505,135 @@
       <c r="L21" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M21" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>18</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="J22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M22" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4">
         <v>19</v>
       </c>
       <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="M23" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="E24" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20">
-        <v>20</v>
-      </c>
-      <c r="B24" s="20">
-        <v>8</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" ht="38.25">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="1:12" ht="39.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
-        <v>2</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -2448,7 +2671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -2456,37 +2679,37 @@
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="J27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -2497,7 +2720,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
@@ -2524,7 +2747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -2535,7 +2758,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>16</v>
@@ -2562,7 +2785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4">
         <v>4</v>
       </c>
@@ -2600,7 +2823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -2608,26 +2831,26 @@
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="J31" s="4" t="s">
         <v>20</v>
       </c>
@@ -2637,32 +2860,35 @@
       <c r="L31" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20">
+      <c r="M31" s="31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="8">
         <v>6</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
@@ -2670,64 +2896,67 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="J33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M33" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
       <c r="B34" s="4">
         <v>5</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="J34" s="4" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4">
         <v>9</v>
       </c>
@@ -2746,37 +2975,37 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4">
         <v>10</v>
       </c>
@@ -2784,37 +3013,37 @@
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="H36" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4">
         <v>11</v>
       </c>
@@ -2822,37 +3051,37 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4">
         <v>12</v>
       </c>
@@ -2863,7 +3092,7 @@
         <v>71</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>64</v>
@@ -2890,7 +3119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4">
         <v>13</v>
       </c>
@@ -2898,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>72</v>
@@ -2907,28 +3136,28 @@
         <v>64</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4">
         <v>14</v>
       </c>
@@ -2936,161 +3165,167 @@
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K40" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4">
         <v>15</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="J41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M41" s="31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4">
         <v>16</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="J42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="M42" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="8">
+        <v>17</v>
+      </c>
+      <c r="B43" s="8">
+        <v>4</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="D43" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="E43" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="20">
-        <v>17</v>
-      </c>
-      <c r="B43" s="20">
-        <v>4</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
-    </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4">
         <v>18</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>20</v>
@@ -3099,36 +3334,39 @@
         <v>31</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4">
         <v>19</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>197</v>
+      <c r="C45" s="30" t="s">
+        <v>266</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>20</v>
@@ -3137,88 +3375,91 @@
         <v>53</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="20">
-        <v>20</v>
-      </c>
-      <c r="B46" s="20">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="8">
+        <v>20</v>
+      </c>
+      <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="23"/>
-    </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4">
         <v>21</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>203</v>
+      <c r="C47" s="30" t="s">
+        <v>269</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="H47" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="L47" s="17"/>
-    </row>
-    <row r="48" spans="1:12" ht="39.75" x14ac:dyDescent="0.15">
-      <c r="A48" s="10">
+      <c r="K47" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L47" s="15"/>
+      <c r="M47" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="38.25">
+      <c r="A48" s="16">
         <v>3</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="13"/>
-    </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="16"/>
+      <c r="C48" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -3256,7 +3497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -3264,37 +3505,37 @@
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="J50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -3302,25 +3543,25 @@
         <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>20</v>
@@ -3328,7 +3569,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4">
         <v>3</v>
       </c>
@@ -3339,7 +3580,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>16</v>
@@ -3362,7 +3603,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4">
         <v>4</v>
       </c>
@@ -3373,7 +3614,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>16</v>
@@ -3396,31 +3637,31 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4">
         <v>5</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>221</v>
+      <c r="C54" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>20</v>
@@ -3428,63 +3669,66 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4">
         <v>6</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>225</v>
+      <c r="C55" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="20">
+      <c r="M55" s="32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="8">
         <v>7</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="8">
         <v>2</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
-    </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4">
         <v>8</v>
       </c>
@@ -3495,7 +3739,7 @@
         <v>62</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>64</v>
@@ -3518,7 +3762,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="4">
         <v>9</v>
       </c>
@@ -3529,7 +3773,7 @@
         <v>71</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>64</v>
@@ -3552,31 +3796,31 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4">
         <v>10</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>232</v>
+      <c r="C59" s="30" t="s">
+        <v>275</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>20</v>
@@ -3588,31 +3832,31 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4">
         <v>11</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>235</v>
+      <c r="C60" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>20</v>
@@ -3626,6 +3870,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="F16:L16"/>
     <mergeCell ref="E56:L56"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="A48:B48"/>
@@ -3639,14 +3889,28 @@
     <mergeCell ref="E32:L32"/>
     <mergeCell ref="E43:L43"/>
     <mergeCell ref="E46:L46"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="F16:L16"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M22" r:id="rId1" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=654418815939&amp;mi_id=000060BIXGmy01WFRAKsmfXiimP9UtkHs_UfnPuJnpu4Bho&amp;ns=1&amp;skuId=4814421600299&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%22d4d5a903fa7ee59ac34a65daef997758%22%7D&amp;xxc=taobaoSearch" xr:uid="{E50AD459-993E-44E0-8752-D9BC03A5DFA5}"/>
+    <hyperlink ref="M23" r:id="rId2" display="https://item.taobao.com/item.htm?id=630868907338&amp;pisk=gVkZSfs6DdpZ0xbBC2eVYoQVnuwTi-87Ixabmmm0fP4g5xgqmoraotfgSWb3my6XXROY3qzEkPN_IP643muxlSDblxStL4WfCFdtmtybnUTWFLiTf-eDPqfFK07TmoZDhr4g-REXAiZnDLitX-INo3GHFiJ8YpAcir00KWq7D-fgm-xUKoqbnOVcI6b3Jo20nSqctyq74tjGnPxFtoqcosXcsDb3moQ0n-0mxHrY-l20nqmHYoh8Zo4cLzFMYPZVjyvQK5zojyWrvvrM3zJ8-tXqKloUrcqAntDUb5kH0SHje5Gm27Hs0KWLC0l3Kui9Q9yojuu_R4vlLJmIxqN-9EB792k4wAVOm1mE3PPoIWSfeDy_mqVq9UW7bRGUaAl9DwmiPPluBmsy5DPrT7E3ti5gCbiSH7DMQaUQwou_R4vlLJVc4f7YxKAjHf7cg5qLYzteYnVmjn-tmgaOMsFmpkzWcn1AMWVdh1kXXsCYt5qUPhZl.&amp;skuId=4919468259396&amp;spm=a21xtw.29978518.0.0" xr:uid="{B3D210CC-7C61-41C6-8982-4C861620EBAB}"/>
+    <hyperlink ref="M7" r:id="rId3" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=975426443925&amp;mi_id=0000cYKClJC1Jc1AHinMRLru9VX8w5iMzr0JEnWuw0Izr7Q&amp;ns=1&amp;priceTId=214786f317580193008053657e0d96&amp;skuId=6096705467775&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2204aa309422c02b151b8ce9af25b9f7c1%22%7D&amp;xxc=taobaoSearch" xr:uid="{928F6752-8FC1-45CC-BB8F-E212196EC7FD}"/>
+    <hyperlink ref="M6" r:id="rId4" display="https://item.taobao.com/item.htm?id=920258365371&amp;mi_id=9zno-sp4T-fxUBLPpLNRYjM3HVv-S4i1EgH10ghutWTu4odsjEAkKBPvu_HIJtNJ17-EyADJjFvAsTFQmpZlEg&amp;spm=a21xtw.29978518.0.0&amp;skuId=5791770032642" xr:uid="{BD156DF7-4E5E-4EE2-81A6-B5E9831AC3F2}"/>
+    <hyperlink ref="M11" r:id="rId5" xr:uid="{7EEE7200-83B3-4854-B726-11241E0B629B}"/>
+    <hyperlink ref="M10" r:id="rId6" display="https://item.taobao.com/item.htm?id=716941958169&amp;pisk=gN_xS7ikF820qiDqMOquS3xyG2Pokuf4et5ISdvmfTBR1t9DIhifNQOD_CMXh1O6WT6ggKf_3OQ9F1S0gh2q6gBVOnXO_SR6CO69Iiqu-s527FwnWy4hgbE0TJBvhdO71BRnl7xjOlTCyFw3KymoNnyD5Ofz59SSVBJWGCOXh73WsCT6GI9bwLO9TcMfCFN8wCdnfqOXGQaWgC8shnO_PQOMMmM6cCa7wCJWCFT1CUNJ_L965FGoCxdIGCuOc3JpBfZrpAkNyIKvBVvjWs_r-hpCqLg_dadA8p1XeVg6pf9UK_C0H25kuwBptt4Sk9CFzTd5dPeJ7TS1CCB78AYVxt7e2_rIP_YvUHs62SafwEpvxaK-_mYAft790ihaT_TfUMJecuyywZbHXp--F-1lwKtdXt2r5KjdNTKhrY0H7TS1CCBSHgoA-wKk8vvpsmN8wcowcQWgD0INHSIZIQp392nZbHRywpVYDcisL2AJKSEobc-z6&amp;spm=a21xtw.29978518.0.0" xr:uid="{7FE33E6B-D826-4CB4-93F4-25C968930B5C}"/>
+    <hyperlink ref="M8" r:id="rId7" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=966546224213&amp;mi_id=00008tQ3qudg7A4SdikW0DiIH-2KqzVABO9W0msOl96Dq8Q&amp;ns=1&amp;priceTId=214785ca17580199819828292e108f&amp;spm=a21n57.1.hoverItem.7&amp;utparam=%7B%22aplus_abtest%22%3A%223cc5fdfc7dea957e82148f799388cb66%22%7D&amp;xxc=taobaoSearch" xr:uid="{310EA1BC-F387-43CC-8F60-D27F1F49BD26}"/>
+    <hyperlink ref="M9" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=943899639614&amp;mi_id=0000DzwJ5cv4j3RHjAnp94NxNKAhXRM-s1-wLKYdwmSojic&amp;ns=1&amp;priceTId=214780ce17580200498055036e0f03&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22bec314bfe5c74f5a4e4ba3912a92ae28%22%7D&amp;xxc=taobaoSearch" xr:uid="{B477DCAE-6482-419F-B0CC-D30154F30A58}"/>
+    <hyperlink ref="M19" r:id="rId9" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=888292015649&amp;mi_id=0000-cHBI6Sjj1tnaL1bQHCO51uaFOOU-ksXiSf0BRSx5S0&amp;ns=1&amp;priceTId=2147881917580204178248505e0f0e&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22048b2d4b2414de05b2ff6a3817f4c69b%22%7D&amp;xxc=taobaoSearch" xr:uid="{8BF5680B-A0F2-4C63-9779-5A5E40E38D80}"/>
+    <hyperlink ref="M21" r:id="rId10" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=936093705618&amp;mi_id=0000Ml3oztywBRp42Oi5oYHKIxZX-478YXvDDy9W-v8C0q4&amp;ns=1&amp;priceTId=215042d717580206155867517e1c70&amp;skuId=5993423818572&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B&quot;aplus_abtest&quot;%3A&quot;7a2ad72407976f833b20cb5a5154057e&quot;%7D&amp;xxc=taobaoSearch" xr:uid="{1FB385B6-5EAE-4B22-A009-AD3B35AF740C}"/>
+    <hyperlink ref="M20" r:id="rId11" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=899468702906&amp;mi_id=0000FtRAc2uzgptAGga3Sl3vm3vm5d4ree0aSWhL_MoK3Fo&amp;ns=1&amp;priceTId=215042d717580207179755207e1c70&amp;skuId=5756232281488&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22488c68094cdaae6f45d38dd6f39edf21%22%7D&amp;xxc=taobaoSearch" xr:uid="{14E7FBBC-12AB-4413-8063-40375800DDB2}"/>
+    <hyperlink ref="M44" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=877153005038&amp;mi_id=0000o4LS3XVuxTINtdBsWajXv2Ivc6IUp_eqtJdhDR1raEI&amp;ns=1&amp;priceTId=215041f117580211429484177e1ca2&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22bce87b2ade38ca018c8b4b46fa009d73%22%7D&amp;xxc=taobaoSearch" xr:uid="{2B50AF6A-E6F9-4D86-BCBB-A5E259D41D38}"/>
+    <hyperlink ref="M33" r:id="rId13" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=718964109220&amp;mi_id=0000Ns8xuypFzNknniNgJMEnoMELX1ck79Y5_QgTZuMvM1Y&amp;ns=1&amp;priceTId=2147bf4f17580213959968456e1060&amp;skuId=5183541598193&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22fc35c0163f3b7c5c026062836999e618%22%7D&amp;xxc=taobaoSearch" xr:uid="{5A93FD08-C20A-4339-A62E-BD0E2C862A4B}"/>
+    <hyperlink ref="M41" r:id="rId14" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=953068594782&amp;mi_id=0000fiDIXFecdL2v6Vlv0Pxmdsk4oQOPjPNOP-op8M-RXUM&amp;ns=1&amp;priceTId=215048b217580214756247049e1f15&amp;skuId=5874671389841&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b87e91fd7e4215720ad61c4add316e16%22%7D&amp;xxc=taobaoSearch" xr:uid="{0BAA1254-663C-4AB5-8E5A-C5B080C8AC85}"/>
+    <hyperlink ref="M42" r:id="rId15" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=855067312397&amp;mi_id=00009sOYLrjyC7GndWyFqAOJNjXSv6RKXDfx-1sK0G-A5Kk&amp;ns=1&amp;priceTId=215047c317580216072071056e2591&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%227ce6ca78bdd235daa3a18a18a6767425%22%7D&amp;xxc=taobaoSearch" xr:uid="{4D77A304-6E6D-49CD-A186-9D7DC0F7D4A8}"/>
+    <hyperlink ref="M47" r:id="rId16" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=743060907599&amp;mi_id=0000GZD1x9hrmcekeHgaLXO0p1TY-jfIywnkMIW8q_c5xek&amp;ns=1&amp;priceTId=213e0ad117580216472983018e101d&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22cceb11ef8417a9da61f99644b825395d%22%7D&amp;xxc=taobaoSearch" xr:uid="{38569848-AC75-4AA0-8ADC-EBD6E6A9CC47}"/>
+    <hyperlink ref="M31" r:id="rId17" display="https://item.taobao.com/item.htm?ali_refid=a3_420434_1006%3A1108328120%3AH%3AJ1n0nk43ygW8lHPCpww8qA%3D%3D%3A2695be91412c8462664e89681465dca9&amp;ali_trackid=282_2695be91412c8462664e89681465dca9&amp;id=826681910516&amp;mi_id=00008jdvlQhE6gSclFrBXbezGYFW1bFKC5HUWxAku0SrN6o&amp;mm_sceneid=1_0_53676129_0&amp;priceTId=213e09fc17580217006984494e105a&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2242993846cc727f7ae5dd8ac847a7b652%22%7D&amp;xxc=ad_ztc" xr:uid="{29C2C35A-634E-436C-9176-E29D82075994}"/>
+    <hyperlink ref="M55" r:id="rId18" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=861252926713&amp;mi_id=0000xpcupGA8K5zZx-DDbu-EEk9MpTO7KDmfW4kw5blnW60&amp;ns=1&amp;priceTId=213e091e17580218929985088e0fcb&amp;skuId=5678393928792&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22afae26962b6fc54fe015d6301bfd5168%22%7D&amp;xxc=taobaoSearch" xr:uid="{30D1F06D-7BBC-4441-A29A-21710204056E}"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/01_HARDWARE（已完成）/02_PCB BOM清单/20250911-PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）.xlsx
+++ b/01_HARDWARE（已完成）/02_PCB BOM清单/20250911-PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\流浪地球 550W（MOSS）小智AI生态中枢\01_HARDWARE（已完成）\02_PCB BOM清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380F4519-9734-44D6-A9E9-395584E527BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F841ABE-0401-41BE-BB5B-4378C967C256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="6420" windowWidth="28335" windowHeight="22650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24600" yWindow="6225" windowWidth="28335" windowHeight="22650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="281">
   <si>
     <t>PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）</t>
   </si>
@@ -904,9 +904,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>全新原装 ME6211C33M5G ME6211-3.3V 低压差线性稳压器IC SOT23-5-淘宝网</t>
-  </si>
-  <si>
     <t>FH2.54-09-03PZD</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1042,6 +1039,16 @@
       </rPr>
       <t>N8-自己改N16</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原装正品 ME6211C15M5G-N 丝印S7** SOT-23-5 线性稳压器芯片-淘宝网</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a21bo.29621204.0.0.420bOW0hOW0hEX&amp;id=811636420918&amp;skuId=5504242924787</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a21bo.29621204.0.0.420bOW0hOW0hEX&amp;id=811850377248&amp;skuId=5507484409609</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1729,7 +1736,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1986,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>40</v>
@@ -2016,7 +2023,7 @@
         <v>21</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2027,7 +2034,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -2057,7 +2064,7 @@
         <v>21</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2098,7 +2105,7 @@
         <v>54</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2328,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>81</v>
@@ -2370,7 +2377,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>90</v>
@@ -2394,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>94</v>
@@ -2424,7 +2431,7 @@
         <v>21</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2435,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>98</v>
@@ -2465,7 +2472,7 @@
         <v>21</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2476,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>102</v>
@@ -2506,7 +2513,7 @@
         <v>61</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2861,7 +2868,7 @@
         <v>21</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2902,13 +2909,13 @@
         <v>137</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>138</v>
@@ -2926,7 +2933,7 @@
         <v>141</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2937,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>143</v>
@@ -3201,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>172</v>
@@ -3231,7 +3238,7 @@
         <v>177</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -3242,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>179</v>
@@ -3272,7 +3279,7 @@
         <v>183</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -3307,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>188</v>
@@ -3337,7 +3344,7 @@
         <v>192</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -3348,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>81</v>
@@ -3386,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>94</v>
@@ -3410,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>199</v>
@@ -3438,7 +3445,7 @@
       </c>
       <c r="L47" s="29"/>
       <c r="M47" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="38.25">
@@ -3645,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>217</v>
@@ -3677,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>34</v>
@@ -3701,7 +3708,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -3804,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>80</v>
@@ -3831,6 +3838,9 @@
       <c r="L59" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="M59" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4">
@@ -3840,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>81</v>
@@ -3866,6 +3876,9 @@
       </c>
       <c r="L60" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3897,19 +3910,20 @@
     <hyperlink ref="M7" r:id="rId3" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=975426443925&amp;mi_id=0000cYKClJC1Jc1AHinMRLru9VX8w5iMzr0JEnWuw0Izr7Q&amp;ns=1&amp;priceTId=214786f317580193008053657e0d96&amp;skuId=6096705467775&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2204aa309422c02b151b8ce9af25b9f7c1%22%7D&amp;xxc=taobaoSearch" xr:uid="{928F6752-8FC1-45CC-BB8F-E212196EC7FD}"/>
     <hyperlink ref="M6" r:id="rId4" display="https://item.taobao.com/item.htm?id=920258365371&amp;mi_id=9zno-sp4T-fxUBLPpLNRYjM3HVv-S4i1EgH10ghutWTu4odsjEAkKBPvu_HIJtNJ17-EyADJjFvAsTFQmpZlEg&amp;spm=a21xtw.29978518.0.0&amp;skuId=5791770032642" xr:uid="{BD156DF7-4E5E-4EE2-81A6-B5E9831AC3F2}"/>
     <hyperlink ref="M11" r:id="rId5" xr:uid="{7EEE7200-83B3-4854-B726-11241E0B629B}"/>
-    <hyperlink ref="M10" r:id="rId6" display="https://item.taobao.com/item.htm?id=716941958169&amp;pisk=gN_xS7ikF820qiDqMOquS3xyG2Pokuf4et5ISdvmfTBR1t9DIhifNQOD_CMXh1O6WT6ggKf_3OQ9F1S0gh2q6gBVOnXO_SR6CO69Iiqu-s527FwnWy4hgbE0TJBvhdO71BRnl7xjOlTCyFw3KymoNnyD5Ofz59SSVBJWGCOXh73WsCT6GI9bwLO9TcMfCFN8wCdnfqOXGQaWgC8shnO_PQOMMmM6cCa7wCJWCFT1CUNJ_L965FGoCxdIGCuOc3JpBfZrpAkNyIKvBVvjWs_r-hpCqLg_dadA8p1XeVg6pf9UK_C0H25kuwBptt4Sk9CFzTd5dPeJ7TS1CCB78AYVxt7e2_rIP_YvUHs62SafwEpvxaK-_mYAft790ihaT_TfUMJecuyywZbHXp--F-1lwKtdXt2r5KjdNTKhrY0H7TS1CCBSHgoA-wKk8vvpsmN8wcowcQWgD0INHSIZIQp392nZbHRywpVYDcisL2AJKSEobc-z6&amp;spm=a21xtw.29978518.0.0" xr:uid="{7FE33E6B-D826-4CB4-93F4-25C968930B5C}"/>
-    <hyperlink ref="M8" r:id="rId7" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=966546224213&amp;mi_id=00008tQ3qudg7A4SdikW0DiIH-2KqzVABO9W0msOl96Dq8Q&amp;ns=1&amp;priceTId=214785ca17580199819828292e108f&amp;spm=a21n57.1.hoverItem.7&amp;utparam=%7B%22aplus_abtest%22%3A%223cc5fdfc7dea957e82148f799388cb66%22%7D&amp;xxc=taobaoSearch" xr:uid="{310EA1BC-F387-43CC-8F60-D27F1F49BD26}"/>
-    <hyperlink ref="M9" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=943899639614&amp;mi_id=0000DzwJ5cv4j3RHjAnp94NxNKAhXRM-s1-wLKYdwmSojic&amp;ns=1&amp;priceTId=214780ce17580200498055036e0f03&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22bec314bfe5c74f5a4e4ba3912a92ae28%22%7D&amp;xxc=taobaoSearch" xr:uid="{B477DCAE-6482-419F-B0CC-D30154F30A58}"/>
-    <hyperlink ref="M19" r:id="rId9" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=888292015649&amp;mi_id=0000-cHBI6Sjj1tnaL1bQHCO51uaFOOU-ksXiSf0BRSx5S0&amp;ns=1&amp;priceTId=2147881917580204178248505e0f0e&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22048b2d4b2414de05b2ff6a3817f4c69b%22%7D&amp;xxc=taobaoSearch" xr:uid="{8BF5680B-A0F2-4C63-9779-5A5E40E38D80}"/>
-    <hyperlink ref="M21" r:id="rId10" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=936093705618&amp;mi_id=0000Ml3oztywBRp42Oi5oYHKIxZX-478YXvDDy9W-v8C0q4&amp;ns=1&amp;priceTId=215042d717580206155867517e1c70&amp;skuId=5993423818572&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B&quot;aplus_abtest&quot;%3A&quot;7a2ad72407976f833b20cb5a5154057e&quot;%7D&amp;xxc=taobaoSearch" xr:uid="{1FB385B6-5EAE-4B22-A009-AD3B35AF740C}"/>
-    <hyperlink ref="M20" r:id="rId11" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=899468702906&amp;mi_id=0000FtRAc2uzgptAGga3Sl3vm3vm5d4ree0aSWhL_MoK3Fo&amp;ns=1&amp;priceTId=215042d717580207179755207e1c70&amp;skuId=5756232281488&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22488c68094cdaae6f45d38dd6f39edf21%22%7D&amp;xxc=taobaoSearch" xr:uid="{14E7FBBC-12AB-4413-8063-40375800DDB2}"/>
-    <hyperlink ref="M44" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=877153005038&amp;mi_id=0000o4LS3XVuxTINtdBsWajXv2Ivc6IUp_eqtJdhDR1raEI&amp;ns=1&amp;priceTId=215041f117580211429484177e1ca2&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22bce87b2ade38ca018c8b4b46fa009d73%22%7D&amp;xxc=taobaoSearch" xr:uid="{2B50AF6A-E6F9-4D86-BCBB-A5E259D41D38}"/>
-    <hyperlink ref="M33" r:id="rId13" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=718964109220&amp;mi_id=0000Ns8xuypFzNknniNgJMEnoMELX1ck79Y5_QgTZuMvM1Y&amp;ns=1&amp;priceTId=2147bf4f17580213959968456e1060&amp;skuId=5183541598193&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22fc35c0163f3b7c5c026062836999e618%22%7D&amp;xxc=taobaoSearch" xr:uid="{5A93FD08-C20A-4339-A62E-BD0E2C862A4B}"/>
-    <hyperlink ref="M41" r:id="rId14" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=953068594782&amp;mi_id=0000fiDIXFecdL2v6Vlv0Pxmdsk4oQOPjPNOP-op8M-RXUM&amp;ns=1&amp;priceTId=215048b217580214756247049e1f15&amp;skuId=5874671389841&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b87e91fd7e4215720ad61c4add316e16%22%7D&amp;xxc=taobaoSearch" xr:uid="{0BAA1254-663C-4AB5-8E5A-C5B080C8AC85}"/>
-    <hyperlink ref="M42" r:id="rId15" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=855067312397&amp;mi_id=00009sOYLrjyC7GndWyFqAOJNjXSv6RKXDfx-1sK0G-A5Kk&amp;ns=1&amp;priceTId=215047c317580216072071056e2591&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%227ce6ca78bdd235daa3a18a18a6767425%22%7D&amp;xxc=taobaoSearch" xr:uid="{4D77A304-6E6D-49CD-A186-9D7DC0F7D4A8}"/>
-    <hyperlink ref="M47" r:id="rId16" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=743060907599&amp;mi_id=0000GZD1x9hrmcekeHgaLXO0p1TY-jfIywnkMIW8q_c5xek&amp;ns=1&amp;priceTId=213e0ad117580216472983018e101d&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22cceb11ef8417a9da61f99644b825395d%22%7D&amp;xxc=taobaoSearch" xr:uid="{38569848-AC75-4AA0-8ADC-EBD6E6A9CC47}"/>
-    <hyperlink ref="M31" r:id="rId17" display="https://item.taobao.com/item.htm?ali_refid=a3_420434_1006%3A1108328120%3AH%3AJ1n0nk43ygW8lHPCpww8qA%3D%3D%3A2695be91412c8462664e89681465dca9&amp;ali_trackid=282_2695be91412c8462664e89681465dca9&amp;id=826681910516&amp;mi_id=00008jdvlQhE6gSclFrBXbezGYFW1bFKC5HUWxAku0SrN6o&amp;mm_sceneid=1_0_53676129_0&amp;priceTId=213e09fc17580217006984494e105a&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2242993846cc727f7ae5dd8ac847a7b652%22%7D&amp;xxc=ad_ztc" xr:uid="{29C2C35A-634E-436C-9176-E29D82075994}"/>
-    <hyperlink ref="M55" r:id="rId18" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=861252926713&amp;mi_id=0000xpcupGA8K5zZx-DDbu-EEk9MpTO7KDmfW4kw5blnW60&amp;ns=1&amp;priceTId=213e091e17580218929985088e0fcb&amp;skuId=5678393928792&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22afae26962b6fc54fe015d6301bfd5168%22%7D&amp;xxc=taobaoSearch" xr:uid="{30D1F06D-7BBC-4441-A29A-21710204056E}"/>
+    <hyperlink ref="M8" r:id="rId6" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=966546224213&amp;mi_id=00008tQ3qudg7A4SdikW0DiIH-2KqzVABO9W0msOl96Dq8Q&amp;ns=1&amp;priceTId=214785ca17580199819828292e108f&amp;spm=a21n57.1.hoverItem.7&amp;utparam=%7B%22aplus_abtest%22%3A%223cc5fdfc7dea957e82148f799388cb66%22%7D&amp;xxc=taobaoSearch" xr:uid="{310EA1BC-F387-43CC-8F60-D27F1F49BD26}"/>
+    <hyperlink ref="M9" r:id="rId7" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=943899639614&amp;mi_id=0000DzwJ5cv4j3RHjAnp94NxNKAhXRM-s1-wLKYdwmSojic&amp;ns=1&amp;priceTId=214780ce17580200498055036e0f03&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22bec314bfe5c74f5a4e4ba3912a92ae28%22%7D&amp;xxc=taobaoSearch" xr:uid="{B477DCAE-6482-419F-B0CC-D30154F30A58}"/>
+    <hyperlink ref="M19" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=888292015649&amp;mi_id=0000-cHBI6Sjj1tnaL1bQHCO51uaFOOU-ksXiSf0BRSx5S0&amp;ns=1&amp;priceTId=2147881917580204178248505e0f0e&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22048b2d4b2414de05b2ff6a3817f4c69b%22%7D&amp;xxc=taobaoSearch" xr:uid="{8BF5680B-A0F2-4C63-9779-5A5E40E38D80}"/>
+    <hyperlink ref="M21" r:id="rId9" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=936093705618&amp;mi_id=0000Ml3oztywBRp42Oi5oYHKIxZX-478YXvDDy9W-v8C0q4&amp;ns=1&amp;priceTId=215042d717580206155867517e1c70&amp;skuId=5993423818572&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B&quot;aplus_abtest&quot;%3A&quot;7a2ad72407976f833b20cb5a5154057e&quot;%7D&amp;xxc=taobaoSearch" xr:uid="{1FB385B6-5EAE-4B22-A009-AD3B35AF740C}"/>
+    <hyperlink ref="M20" r:id="rId10" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=899468702906&amp;mi_id=0000FtRAc2uzgptAGga3Sl3vm3vm5d4ree0aSWhL_MoK3Fo&amp;ns=1&amp;priceTId=215042d717580207179755207e1c70&amp;skuId=5756232281488&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22488c68094cdaae6f45d38dd6f39edf21%22%7D&amp;xxc=taobaoSearch" xr:uid="{14E7FBBC-12AB-4413-8063-40375800DDB2}"/>
+    <hyperlink ref="M44" r:id="rId11" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=877153005038&amp;mi_id=0000o4LS3XVuxTINtdBsWajXv2Ivc6IUp_eqtJdhDR1raEI&amp;ns=1&amp;priceTId=215041f117580211429484177e1ca2&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22bce87b2ade38ca018c8b4b46fa009d73%22%7D&amp;xxc=taobaoSearch" xr:uid="{2B50AF6A-E6F9-4D86-BCBB-A5E259D41D38}"/>
+    <hyperlink ref="M33" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=718964109220&amp;mi_id=0000Ns8xuypFzNknniNgJMEnoMELX1ck79Y5_QgTZuMvM1Y&amp;ns=1&amp;priceTId=2147bf4f17580213959968456e1060&amp;skuId=5183541598193&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22fc35c0163f3b7c5c026062836999e618%22%7D&amp;xxc=taobaoSearch" xr:uid="{5A93FD08-C20A-4339-A62E-BD0E2C862A4B}"/>
+    <hyperlink ref="M41" r:id="rId13" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=953068594782&amp;mi_id=0000fiDIXFecdL2v6Vlv0Pxmdsk4oQOPjPNOP-op8M-RXUM&amp;ns=1&amp;priceTId=215048b217580214756247049e1f15&amp;skuId=5874671389841&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22b87e91fd7e4215720ad61c4add316e16%22%7D&amp;xxc=taobaoSearch" xr:uid="{0BAA1254-663C-4AB5-8E5A-C5B080C8AC85}"/>
+    <hyperlink ref="M42" r:id="rId14" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=855067312397&amp;mi_id=00009sOYLrjyC7GndWyFqAOJNjXSv6RKXDfx-1sK0G-A5Kk&amp;ns=1&amp;priceTId=215047c317580216072071056e2591&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%227ce6ca78bdd235daa3a18a18a6767425%22%7D&amp;xxc=taobaoSearch" xr:uid="{4D77A304-6E6D-49CD-A186-9D7DC0F7D4A8}"/>
+    <hyperlink ref="M47" r:id="rId15" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=743060907599&amp;mi_id=0000GZD1x9hrmcekeHgaLXO0p1TY-jfIywnkMIW8q_c5xek&amp;ns=1&amp;priceTId=213e0ad117580216472983018e101d&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22cceb11ef8417a9da61f99644b825395d%22%7D&amp;xxc=taobaoSearch" xr:uid="{38569848-AC75-4AA0-8ADC-EBD6E6A9CC47}"/>
+    <hyperlink ref="M31" r:id="rId16" display="https://item.taobao.com/item.htm?ali_refid=a3_420434_1006%3A1108328120%3AH%3AJ1n0nk43ygW8lHPCpww8qA%3D%3D%3A2695be91412c8462664e89681465dca9&amp;ali_trackid=282_2695be91412c8462664e89681465dca9&amp;id=826681910516&amp;mi_id=00008jdvlQhE6gSclFrBXbezGYFW1bFKC5HUWxAku0SrN6o&amp;mm_sceneid=1_0_53676129_0&amp;priceTId=213e09fc17580217006984494e105a&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2242993846cc727f7ae5dd8ac847a7b652%22%7D&amp;xxc=ad_ztc" xr:uid="{29C2C35A-634E-436C-9176-E29D82075994}"/>
+    <hyperlink ref="M55" r:id="rId17" display="https://item.taobao.com/item.htm?abbucket=8&amp;id=861252926713&amp;mi_id=0000xpcupGA8K5zZx-DDbu-EEk9MpTO7KDmfW4kw5blnW60&amp;ns=1&amp;priceTId=213e091e17580218929985088e0fcb&amp;skuId=5678393928792&amp;spm=a21n57.1.hoverItem.1&amp;utparam=%7B%22aplus_abtest%22%3A%22afae26962b6fc54fe015d6301bfd5168%22%7D&amp;xxc=taobaoSearch" xr:uid="{30D1F06D-7BBC-4441-A29A-21710204056E}"/>
+    <hyperlink ref="M60" r:id="rId18" display="https://item.taobao.com/item.htm?ft=t&amp;id=811848597733&amp;skuId=5504781100216&amp;spm=a21bo.29621204.0.0.420bOW0hOW0hEX" xr:uid="{D5C5E15B-F3EA-4A22-B1C2-A11692C955E0}"/>
+    <hyperlink ref="M10" r:id="rId19" xr:uid="{AF90BE9C-8B4B-407D-B4FE-8D6803557C92}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_HARDWARE（已完成）/02_PCB BOM清单/20250911-PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）.xlsx
+++ b/01_HARDWARE（已完成）/02_PCB BOM清单/20250911-PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\流浪地球 550W（MOSS）小智AI生态中枢\01_HARDWARE（已完成）\02_PCB BOM清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F841ABE-0401-41BE-BB5B-4378C967C256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3069614-2A0D-449F-9FC3-997739F73CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24600" yWindow="6225" windowWidth="28335" windowHeight="22650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15135" yWindow="5880" windowWidth="28335" windowHeight="22650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="282">
   <si>
     <t>PCB-BOM清单（仅包含PCBA、不含采购模块、组装部分）</t>
   </si>
@@ -1049,6 +1049,10 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a21bo.29621204.0.0.420bOW0hOW0hEX&amp;id=811850377248&amp;skuId=5507484409609</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO3400A</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1333,10 +1337,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,36 +1364,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,6 +1374,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1735,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1756,38 +1760,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.95" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="39" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2317,24 +2321,24 @@
       <c r="E16" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="30">
+      <c r="A17" s="23">
         <v>14</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="25" t="s">
         <v>277</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2366,9 +2370,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="7" t="s">
         <v>88</v>
       </c>
@@ -2388,10 +2392,10 @@
       <c r="J18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
@@ -2611,34 +2615,34 @@
       <c r="D24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:13" ht="38.25">
-      <c r="A25" s="16">
+      <c r="A25" s="19">
         <v>2</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2" t="s">
@@ -2884,16 +2888,16 @@
       <c r="D32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4">
@@ -3019,8 +3023,8 @@
       <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>153</v>
+      <c r="C36" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>154</v>
@@ -3195,10 +3199,10 @@
       <c r="J40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="L40" s="29"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4">
@@ -3295,16 +3299,16 @@
       <c r="D43" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4">
@@ -3398,16 +3402,16 @@
       <c r="D46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4">
@@ -3440,31 +3444,31 @@
       <c r="J47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="28" t="s">
+      <c r="K47" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="L47" s="29"/>
+      <c r="L47" s="18"/>
       <c r="M47" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="38.25">
-      <c r="A48" s="16">
+      <c r="A48" s="19">
         <v>3</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="19"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -3724,16 +3728,16 @@
       <c r="D56" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="16"/>
     </row>
     <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4">
@@ -3883,6 +3887,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="F16:L16"/>
     <mergeCell ref="E56:L56"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="A48:B48"/>
@@ -3896,12 +3906,6 @@
     <mergeCell ref="E32:L32"/>
     <mergeCell ref="E43:L43"/>
     <mergeCell ref="E46:L46"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="F16:L16"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
